--- a/Real_Data.xlsx
+++ b/Real_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TT ELO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C8F080-5D6B-408D-A7F3-36DE51BC00A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B60A22-4180-4268-8CE2-610B1EA7552E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DEAF03A-B884-45F7-8761-BA0B5E4122B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D5D0D2-6944-436D-9099-4E473FDEAEA5}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,6 +2140,121 @@
         <v>14</v>
       </c>
     </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" t="s">
+        <v>13</v>
+      </c>
+      <c r="F74">
+        <v>21</v>
+      </c>
+      <c r="G74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F75">
+        <v>21</v>
+      </c>
+      <c r="G75">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" t="s">
+        <v>13</v>
+      </c>
+      <c r="F76">
+        <v>22</v>
+      </c>
+      <c r="G76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77">
+        <v>21</v>
+      </c>
+      <c r="G77">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>45870</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" t="s">
+        <v>13</v>
+      </c>
+      <c r="F78">
+        <v>21</v>
+      </c>
+      <c r="G78">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Real_Data.xlsx
+++ b/Real_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TT ELO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B60A22-4180-4268-8CE2-610B1EA7552E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC08774-8E97-4B29-844E-E39391B46C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DEAF03A-B884-45F7-8761-BA0B5E4122B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D5D0D2-6944-436D-9099-4E473FDEAEA5}">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,6 +2255,558 @@
         <v>19</v>
       </c>
     </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79">
+        <v>21</v>
+      </c>
+      <c r="G79">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80">
+        <v>21</v>
+      </c>
+      <c r="G80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81">
+        <v>21</v>
+      </c>
+      <c r="G81">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>45871</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82">
+        <v>21</v>
+      </c>
+      <c r="G82">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" t="s">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83">
+        <v>21</v>
+      </c>
+      <c r="G83">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" t="s">
+        <v>12</v>
+      </c>
+      <c r="D84" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84">
+        <v>21</v>
+      </c>
+      <c r="G84">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85">
+        <v>21</v>
+      </c>
+      <c r="G85">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>45873</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86">
+        <v>21</v>
+      </c>
+      <c r="G86">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" t="s">
+        <v>7</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87">
+        <v>21</v>
+      </c>
+      <c r="G87">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" t="s">
+        <v>12</v>
+      </c>
+      <c r="D88" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88">
+        <v>21</v>
+      </c>
+      <c r="G88">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="s">
+        <v>8</v>
+      </c>
+      <c r="D89" t="s">
+        <v>12</v>
+      </c>
+      <c r="E89" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89">
+        <v>21</v>
+      </c>
+      <c r="G89">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" t="s">
+        <v>13</v>
+      </c>
+      <c r="F90">
+        <v>21</v>
+      </c>
+      <c r="G90">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F91">
+        <v>21</v>
+      </c>
+      <c r="G91">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>45875</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" t="s">
+        <v>13</v>
+      </c>
+      <c r="F92">
+        <v>21</v>
+      </c>
+      <c r="G92">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>10</v>
+      </c>
+      <c r="F93">
+        <v>21</v>
+      </c>
+      <c r="G93">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" t="s">
+        <v>7</v>
+      </c>
+      <c r="E94" t="s">
+        <v>13</v>
+      </c>
+      <c r="F94">
+        <v>21</v>
+      </c>
+      <c r="G94">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95">
+        <v>21</v>
+      </c>
+      <c r="G95">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s">
+        <v>8</v>
+      </c>
+      <c r="D96" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s">
+        <v>10</v>
+      </c>
+      <c r="F96">
+        <v>21</v>
+      </c>
+      <c r="G96">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" t="s">
+        <v>7</v>
+      </c>
+      <c r="E97" t="s">
+        <v>13</v>
+      </c>
+      <c r="F97">
+        <v>21</v>
+      </c>
+      <c r="G97">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>7</v>
+      </c>
+      <c r="E98" t="s">
+        <v>13</v>
+      </c>
+      <c r="F98">
+        <v>21</v>
+      </c>
+      <c r="G98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" t="s">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <v>21</v>
+      </c>
+      <c r="G99">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" t="s">
+        <v>8</v>
+      </c>
+      <c r="F100">
+        <v>21</v>
+      </c>
+      <c r="G100">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101">
+        <v>21</v>
+      </c>
+      <c r="G101">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>45876</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102">
+        <v>21</v>
+      </c>
+      <c r="G102">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Real_Data.xlsx
+++ b/Real_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TT ELO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC08774-8E97-4B29-844E-E39391B46C48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8565910D-8406-4FE0-BE7E-420143CA84EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DEAF03A-B884-45F7-8761-BA0B5E4122B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D5D0D2-6944-436D-9099-4E473FDEAEA5}">
-  <dimension ref="A1:G102"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="I128" sqref="I128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,6 +2807,653 @@
         <v>15</v>
       </c>
     </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>9</v>
+      </c>
+      <c r="E103" t="s">
+        <v>10</v>
+      </c>
+      <c r="F103">
+        <v>22</v>
+      </c>
+      <c r="G103">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" t="s">
+        <v>13</v>
+      </c>
+      <c r="F104">
+        <v>21</v>
+      </c>
+      <c r="G104">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" t="s">
+        <v>13</v>
+      </c>
+      <c r="F105">
+        <v>21</v>
+      </c>
+      <c r="G105">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>9</v>
+      </c>
+      <c r="E106" t="s">
+        <v>10</v>
+      </c>
+      <c r="F106">
+        <v>21</v>
+      </c>
+      <c r="G106">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" t="s">
+        <v>13</v>
+      </c>
+      <c r="F107">
+        <v>21</v>
+      </c>
+      <c r="G107">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" t="s">
+        <v>13</v>
+      </c>
+      <c r="F108">
+        <v>21</v>
+      </c>
+      <c r="G108">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" t="s">
+        <v>13</v>
+      </c>
+      <c r="F109">
+        <v>21</v>
+      </c>
+      <c r="G109">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>45877</v>
+      </c>
+      <c r="B110" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>12</v>
+      </c>
+      <c r="E110" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110">
+        <v>21</v>
+      </c>
+      <c r="G110">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B111" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" t="s">
+        <v>10</v>
+      </c>
+      <c r="F111">
+        <v>21</v>
+      </c>
+      <c r="G111">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>13</v>
+      </c>
+      <c r="F112">
+        <v>21</v>
+      </c>
+      <c r="G112">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>12</v>
+      </c>
+      <c r="E113" t="s">
+        <v>8</v>
+      </c>
+      <c r="F113">
+        <v>21</v>
+      </c>
+      <c r="G113">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" t="s">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>7</v>
+      </c>
+      <c r="F114">
+        <v>21</v>
+      </c>
+      <c r="G114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B115" t="s">
+        <v>10</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115">
+        <v>21</v>
+      </c>
+      <c r="G115">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B116" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" t="s">
+        <v>13</v>
+      </c>
+      <c r="F116">
+        <v>21</v>
+      </c>
+      <c r="G116">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>45878</v>
+      </c>
+      <c r="B117" t="s">
+        <v>10</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117">
+        <v>21</v>
+      </c>
+      <c r="G117">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>12</v>
+      </c>
+      <c r="D118" t="s">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s">
+        <v>10</v>
+      </c>
+      <c r="F118">
+        <v>21</v>
+      </c>
+      <c r="G118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B119" t="s">
+        <v>11</v>
+      </c>
+      <c r="C119" t="s">
+        <v>12</v>
+      </c>
+      <c r="D119" t="s">
+        <v>10</v>
+      </c>
+      <c r="E119" t="s">
+        <v>13</v>
+      </c>
+      <c r="F119">
+        <v>21</v>
+      </c>
+      <c r="G119">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>9</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120">
+        <v>21</v>
+      </c>
+      <c r="G120">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B121" t="s">
+        <v>10</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" t="s">
+        <v>9</v>
+      </c>
+      <c r="F121">
+        <v>21</v>
+      </c>
+      <c r="G121">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" t="s">
+        <v>9</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>9</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" t="s">
+        <v>13</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>9</v>
+      </c>
+      <c r="E125" t="s">
+        <v>13</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B126" t="s">
+        <v>11</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>13</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>12</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
+        <v>13</v>
+      </c>
+      <c r="F128">
+        <v>21</v>
+      </c>
+      <c r="G128">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B129" t="s">
+        <v>11</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>12</v>
+      </c>
+      <c r="E129" t="s">
+        <v>13</v>
+      </c>
+      <c r="F129">
+        <v>21</v>
+      </c>
+      <c r="G129">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>45884</v>
+      </c>
+      <c r="B130" t="s">
+        <v>11</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>12</v>
+      </c>
+      <c r="E130" t="s">
+        <v>13</v>
+      </c>
+      <c r="F130">
+        <v>21</v>
+      </c>
+      <c r="G130">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Real_Data.xlsx
+++ b/Real_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TT ELO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8565910D-8406-4FE0-BE7E-420143CA84EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DA66EF-5DDD-4A29-9B84-C81C8F428F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DEAF03A-B884-45F7-8761-BA0B5E4122B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D5D0D2-6944-436D-9099-4E473FDEAEA5}">
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="I128" sqref="I128"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3452,7 +3452,1223 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="1"/>
+      <c r="A131" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131">
+        <v>21</v>
+      </c>
+      <c r="G131">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" t="s">
+        <v>10</v>
+      </c>
+      <c r="F132">
+        <v>21</v>
+      </c>
+      <c r="G132">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" t="s">
+        <v>8</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" t="s">
+        <v>7</v>
+      </c>
+      <c r="F133">
+        <v>21</v>
+      </c>
+      <c r="G133">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>8</v>
+      </c>
+      <c r="F134">
+        <v>22</v>
+      </c>
+      <c r="G134">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B135" t="s">
+        <v>11</v>
+      </c>
+      <c r="C135" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>10</v>
+      </c>
+      <c r="F135">
+        <v>21</v>
+      </c>
+      <c r="G135">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B136" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>8</v>
+      </c>
+      <c r="F136">
+        <v>21</v>
+      </c>
+      <c r="G136">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>12</v>
+      </c>
+      <c r="E137" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137">
+        <v>21</v>
+      </c>
+      <c r="G137">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>10</v>
+      </c>
+      <c r="F138">
+        <v>21</v>
+      </c>
+      <c r="G138">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" t="s">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>10</v>
+      </c>
+      <c r="F139">
+        <v>21</v>
+      </c>
+      <c r="G139">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" t="s">
+        <v>7</v>
+      </c>
+      <c r="F140">
+        <v>21</v>
+      </c>
+      <c r="G140">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>45886</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" t="s">
+        <v>7</v>
+      </c>
+      <c r="F141">
+        <v>21</v>
+      </c>
+      <c r="G141">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+      <c r="E142" t="s">
+        <v>8</v>
+      </c>
+      <c r="F142">
+        <v>21</v>
+      </c>
+      <c r="G142">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>7</v>
+      </c>
+      <c r="E143" t="s">
+        <v>9</v>
+      </c>
+      <c r="F143">
+        <v>21</v>
+      </c>
+      <c r="G143">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B144" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" t="s">
+        <v>9</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+      <c r="E144" t="s">
+        <v>8</v>
+      </c>
+      <c r="F144">
+        <v>23</v>
+      </c>
+      <c r="G144">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+      <c r="E145" t="s">
+        <v>8</v>
+      </c>
+      <c r="F145">
+        <v>21</v>
+      </c>
+      <c r="G145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" t="s">
+        <v>9</v>
+      </c>
+      <c r="F146">
+        <v>21</v>
+      </c>
+      <c r="G146">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+      <c r="F147">
+        <v>21</v>
+      </c>
+      <c r="G147">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" t="s">
+        <v>12</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+      <c r="E148" t="s">
+        <v>10</v>
+      </c>
+      <c r="F148">
+        <v>21</v>
+      </c>
+      <c r="G148">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>45887</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" t="s">
+        <v>13</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149">
+        <v>21</v>
+      </c>
+      <c r="G149">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>12</v>
+      </c>
+      <c r="E150" t="s">
+        <v>8</v>
+      </c>
+      <c r="F150">
+        <v>21</v>
+      </c>
+      <c r="G150">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>13</v>
+      </c>
+      <c r="E151" t="s">
+        <v>8</v>
+      </c>
+      <c r="F151">
+        <v>21</v>
+      </c>
+      <c r="G151">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" t="s">
+        <v>12</v>
+      </c>
+      <c r="E152" t="s">
+        <v>13</v>
+      </c>
+      <c r="F152">
+        <v>21</v>
+      </c>
+      <c r="G152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B153" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>12</v>
+      </c>
+      <c r="E153" t="s">
+        <v>13</v>
+      </c>
+      <c r="F153">
+        <v>21</v>
+      </c>
+      <c r="G153">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" t="s">
+        <v>8</v>
+      </c>
+      <c r="F154">
+        <v>21</v>
+      </c>
+      <c r="G154">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B155" t="s">
+        <v>12</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F155">
+        <v>21</v>
+      </c>
+      <c r="G155">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>45889</v>
+      </c>
+      <c r="B156" t="s">
+        <v>10</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>8</v>
+      </c>
+      <c r="F156">
+        <v>21</v>
+      </c>
+      <c r="G156">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B157" t="s">
+        <v>11</v>
+      </c>
+      <c r="C157" t="s">
+        <v>9</v>
+      </c>
+      <c r="D157" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" t="s">
+        <v>13</v>
+      </c>
+      <c r="F157">
+        <v>21</v>
+      </c>
+      <c r="G157">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B158" t="s">
+        <v>12</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158">
+        <v>21</v>
+      </c>
+      <c r="G158">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>12</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159">
+        <v>22</v>
+      </c>
+      <c r="G159">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B160" t="s">
+        <v>9</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>12</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160">
+        <v>21</v>
+      </c>
+      <c r="G160">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B161" t="s">
+        <v>11</v>
+      </c>
+      <c r="C161" t="s">
+        <v>12</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" t="s">
+        <v>8</v>
+      </c>
+      <c r="F161">
+        <v>21</v>
+      </c>
+      <c r="G161">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B162" t="s">
+        <v>11</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" t="s">
+        <v>8</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B163" t="s">
+        <v>11</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>45890</v>
+      </c>
+      <c r="B164" t="s">
+        <v>11</v>
+      </c>
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>8</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B165" t="s">
+        <v>11</v>
+      </c>
+      <c r="C165" t="s">
+        <v>12</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>11</v>
+      </c>
+      <c r="E166" t="s">
+        <v>12</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B167" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" t="s">
+        <v>8</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B168" t="s">
+        <v>10</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" t="s">
+        <v>11</v>
+      </c>
+      <c r="E168" t="s">
+        <v>12</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B169" t="s">
+        <v>9</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>11</v>
+      </c>
+      <c r="E169" t="s">
+        <v>12</v>
+      </c>
+      <c r="F169">
+        <v>21</v>
+      </c>
+      <c r="G169">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B170" t="s">
+        <v>10</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" t="s">
+        <v>8</v>
+      </c>
+      <c r="F170">
+        <v>21</v>
+      </c>
+      <c r="G170">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B171" t="s">
+        <v>10</v>
+      </c>
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" t="s">
+        <v>11</v>
+      </c>
+      <c r="E171" t="s">
+        <v>12</v>
+      </c>
+      <c r="F171">
+        <v>21</v>
+      </c>
+      <c r="G171">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B172" t="s">
+        <v>11</v>
+      </c>
+      <c r="C172" t="s">
+        <v>12</v>
+      </c>
+      <c r="D172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" t="s">
+        <v>8</v>
+      </c>
+      <c r="F172">
+        <v>21</v>
+      </c>
+      <c r="G172">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B173" t="s">
+        <v>10</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" t="s">
+        <v>8</v>
+      </c>
+      <c r="F173">
+        <v>21</v>
+      </c>
+      <c r="G173">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B174" t="s">
+        <v>11</v>
+      </c>
+      <c r="C174" t="s">
+        <v>12</v>
+      </c>
+      <c r="D174" t="s">
+        <v>10</v>
+      </c>
+      <c r="E174" t="s">
+        <v>13</v>
+      </c>
+      <c r="F174">
+        <v>23</v>
+      </c>
+      <c r="G174">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="1">
+        <v>45892</v>
+      </c>
+      <c r="B175" t="s">
+        <v>10</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" t="s">
+        <v>11</v>
+      </c>
+      <c r="E175" t="s">
+        <v>12</v>
+      </c>
+      <c r="F175">
+        <v>21</v>
+      </c>
+      <c r="G175">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" t="s">
+        <v>12</v>
+      </c>
+      <c r="F176">
+        <v>21</v>
+      </c>
+      <c r="G176">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B177" t="s">
+        <v>13</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" t="s">
+        <v>7</v>
+      </c>
+      <c r="E177" t="s">
+        <v>12</v>
+      </c>
+      <c r="F177">
+        <v>23</v>
+      </c>
+      <c r="G177">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" t="s">
+        <v>12</v>
+      </c>
+      <c r="D178" t="s">
+        <v>13</v>
+      </c>
+      <c r="E178" t="s">
+        <v>10</v>
+      </c>
+      <c r="F178">
+        <v>21</v>
+      </c>
+      <c r="G178">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" t="s">
+        <v>12</v>
+      </c>
+      <c r="D179" t="s">
+        <v>13</v>
+      </c>
+      <c r="E179" t="s">
+        <v>10</v>
+      </c>
+      <c r="F179">
+        <v>21</v>
+      </c>
+      <c r="G179">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" s="1">
+        <v>45894</v>
+      </c>
+      <c r="B180" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" t="s">
+        <v>7</v>
+      </c>
+      <c r="E180" t="s">
+        <v>12</v>
+      </c>
+      <c r="F180">
+        <v>21</v>
+      </c>
+      <c r="G180">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" s="1">
+        <v>45899</v>
+      </c>
+      <c r="B181" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" t="s">
+        <v>12</v>
+      </c>
+      <c r="F181">
+        <v>21</v>
+      </c>
+      <c r="G181">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" s="1">
+        <v>45899</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182" t="s">
+        <v>12</v>
+      </c>
+      <c r="D182" t="s">
+        <v>10</v>
+      </c>
+      <c r="E182" t="s">
+        <v>8</v>
+      </c>
+      <c r="F182">
+        <v>21</v>
+      </c>
+      <c r="G182">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" s="1">
+        <v>45899</v>
+      </c>
+      <c r="B183" t="s">
+        <v>11</v>
+      </c>
+      <c r="C183" t="s">
+        <v>12</v>
+      </c>
+      <c r="D183" t="s">
+        <v>10</v>
+      </c>
+      <c r="E183" t="s">
+        <v>8</v>
+      </c>
+      <c r="F183">
+        <v>22</v>
+      </c>
+      <c r="G183">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Real_Data.xlsx
+++ b/Real_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\TT ELO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99DA66EF-5DDD-4A29-9B84-C81C8F428F3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4CFC373-F1A2-4E78-A3AF-29ACCDEED556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3DEAF03A-B884-45F7-8761-BA0B5E4122B8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -450,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D5D0D2-6944-436D-9099-4E473FDEAEA5}">
-  <dimension ref="A1:G183"/>
+  <dimension ref="A1:G212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="I191" sqref="I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4670,6 +4670,673 @@
         <v>20</v>
       </c>
     </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184" t="s">
+        <v>12</v>
+      </c>
+      <c r="D184" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184">
+        <v>21</v>
+      </c>
+      <c r="G184">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B185" t="s">
+        <v>11</v>
+      </c>
+      <c r="C185" t="s">
+        <v>12</v>
+      </c>
+      <c r="D185" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185">
+        <v>21</v>
+      </c>
+      <c r="G185">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B186" t="s">
+        <v>11</v>
+      </c>
+      <c r="C186" t="s">
+        <v>12</v>
+      </c>
+      <c r="D186" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186">
+        <v>21</v>
+      </c>
+      <c r="G186">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" s="1">
+        <v>45901</v>
+      </c>
+      <c r="B187" t="s">
+        <v>11</v>
+      </c>
+      <c r="C187" t="s">
+        <v>12</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187">
+        <v>21</v>
+      </c>
+      <c r="G187">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" s="1">
+        <v>45905</v>
+      </c>
+      <c r="B188" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" t="s">
+        <v>8</v>
+      </c>
+      <c r="F188">
+        <v>21</v>
+      </c>
+      <c r="G188">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" s="1">
+        <v>45905</v>
+      </c>
+      <c r="B189" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" t="s">
+        <v>8</v>
+      </c>
+      <c r="F189">
+        <v>21</v>
+      </c>
+      <c r="G189">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" s="1">
+        <v>45906</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" t="s">
+        <v>12</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
+      </c>
+      <c r="F190">
+        <v>21</v>
+      </c>
+      <c r="G190">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" s="1">
+        <v>45906</v>
+      </c>
+      <c r="B191" t="s">
+        <v>9</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" t="s">
+        <v>12</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
+      </c>
+      <c r="F191">
+        <v>21</v>
+      </c>
+      <c r="G191">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" s="1">
+        <v>45906</v>
+      </c>
+      <c r="B192" t="s">
+        <v>12</v>
+      </c>
+      <c r="C192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192">
+        <v>21</v>
+      </c>
+      <c r="G192">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" s="1">
+        <v>45906</v>
+      </c>
+      <c r="B193" t="s">
+        <v>12</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193">
+        <v>21</v>
+      </c>
+      <c r="G193">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" s="1">
+        <v>45906</v>
+      </c>
+      <c r="B194" t="s">
+        <v>9</v>
+      </c>
+      <c r="C194" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" t="s">
+        <v>12</v>
+      </c>
+      <c r="E194" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194">
+        <v>21</v>
+      </c>
+      <c r="G194">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" s="1">
+        <v>45906</v>
+      </c>
+      <c r="B195" t="s">
+        <v>9</v>
+      </c>
+      <c r="C195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" t="s">
+        <v>12</v>
+      </c>
+      <c r="E195" t="s">
+        <v>8</v>
+      </c>
+      <c r="F195">
+        <v>21</v>
+      </c>
+      <c r="G195">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" s="1">
+        <v>45907</v>
+      </c>
+      <c r="B196" t="s">
+        <v>11</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" t="s">
+        <v>9</v>
+      </c>
+      <c r="F196">
+        <v>21</v>
+      </c>
+      <c r="G196">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" s="1">
+        <v>45907</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" t="s">
+        <v>9</v>
+      </c>
+      <c r="D197" t="s">
+        <v>11</v>
+      </c>
+      <c r="E197" t="s">
+        <v>13</v>
+      </c>
+      <c r="F197">
+        <v>21</v>
+      </c>
+      <c r="G197">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" s="1">
+        <v>45907</v>
+      </c>
+      <c r="B198" t="s">
+        <v>11</v>
+      </c>
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" t="s">
+        <v>7</v>
+      </c>
+      <c r="E198" t="s">
+        <v>9</v>
+      </c>
+      <c r="F198">
+        <v>21</v>
+      </c>
+      <c r="G198">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" s="1">
+        <v>45907</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" t="s">
+        <v>9</v>
+      </c>
+      <c r="D199" t="s">
+        <v>11</v>
+      </c>
+      <c r="E199" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199">
+        <v>21</v>
+      </c>
+      <c r="G199">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" s="1">
+        <v>45907</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" t="s">
+        <v>9</v>
+      </c>
+      <c r="D200" t="s">
+        <v>11</v>
+      </c>
+      <c r="E200" t="s">
+        <v>13</v>
+      </c>
+      <c r="F200">
+        <v>21</v>
+      </c>
+      <c r="G200">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" s="1">
+        <v>45907</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" t="s">
+        <v>9</v>
+      </c>
+      <c r="D201" t="s">
+        <v>11</v>
+      </c>
+      <c r="E201" t="s">
+        <v>13</v>
+      </c>
+      <c r="F201">
+        <v>21</v>
+      </c>
+      <c r="G201">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" s="1">
+        <v>45907</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" t="s">
+        <v>9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>11</v>
+      </c>
+      <c r="E202" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202">
+        <v>21</v>
+      </c>
+      <c r="G202">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B203" t="s">
+        <v>12</v>
+      </c>
+      <c r="C203" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>10</v>
+      </c>
+      <c r="E203" t="s">
+        <v>13</v>
+      </c>
+      <c r="F203">
+        <v>21</v>
+      </c>
+      <c r="G203">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B204" t="s">
+        <v>12</v>
+      </c>
+      <c r="C204" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" t="s">
+        <v>10</v>
+      </c>
+      <c r="E204" t="s">
+        <v>13</v>
+      </c>
+      <c r="F204">
+        <v>21</v>
+      </c>
+      <c r="G204">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B205" t="s">
+        <v>10</v>
+      </c>
+      <c r="C205" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" t="s">
+        <v>7</v>
+      </c>
+      <c r="E205" t="s">
+        <v>12</v>
+      </c>
+      <c r="F205">
+        <v>21</v>
+      </c>
+      <c r="G205">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B206" t="s">
+        <v>12</v>
+      </c>
+      <c r="C206" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" t="s">
+        <v>10</v>
+      </c>
+      <c r="E206" t="s">
+        <v>13</v>
+      </c>
+      <c r="F206">
+        <v>21</v>
+      </c>
+      <c r="G206">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B207" t="s">
+        <v>12</v>
+      </c>
+      <c r="C207" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" t="s">
+        <v>13</v>
+      </c>
+      <c r="F207">
+        <v>21</v>
+      </c>
+      <c r="G207">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" s="1">
+        <v>45909</v>
+      </c>
+      <c r="B208" t="s">
+        <v>12</v>
+      </c>
+      <c r="C208" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" t="s">
+        <v>10</v>
+      </c>
+      <c r="E208" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208">
+        <v>21</v>
+      </c>
+      <c r="G208">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" s="1">
+        <v>45911</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" t="s">
+        <v>10</v>
+      </c>
+      <c r="E209" t="s">
+        <v>8</v>
+      </c>
+      <c r="F209">
+        <v>21</v>
+      </c>
+      <c r="G209">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" s="1">
+        <v>45911</v>
+      </c>
+      <c r="B210" t="s">
+        <v>9</v>
+      </c>
+      <c r="C210" t="s">
+        <v>12</v>
+      </c>
+      <c r="D210" t="s">
+        <v>10</v>
+      </c>
+      <c r="E210" t="s">
+        <v>8</v>
+      </c>
+      <c r="F210">
+        <v>21</v>
+      </c>
+      <c r="G210">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" s="1">
+        <v>45911</v>
+      </c>
+      <c r="B211" t="s">
+        <v>10</v>
+      </c>
+      <c r="C211" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" t="s">
+        <v>7</v>
+      </c>
+      <c r="E211" t="s">
+        <v>13</v>
+      </c>
+      <c r="F211">
+        <v>21</v>
+      </c>
+      <c r="G211">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" s="1">
+        <v>45911</v>
+      </c>
+      <c r="B212" t="s">
+        <v>10</v>
+      </c>
+      <c r="C212" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" t="s">
+        <v>12</v>
+      </c>
+      <c r="F212">
+        <v>23</v>
+      </c>
+      <c r="G212">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
